--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Organization</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -605,27 +605,37 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
+    <t>Rating</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
+</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
+  </si>
+  <si>
     <t>org-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/org-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
 </t>
   </si>
   <si>
@@ -941,7 +951,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/OrgTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrgTypeVS</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1038,7 +1048,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1051,14 +1061,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>Organization.telecom.system</t>
@@ -1518,7 +1528,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -2012,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2045,7 +2055,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3980,7 +3990,7 @@
         <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4040,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>113</v>
@@ -4063,7 +4073,7 @@
         <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>76</v>
@@ -4073,7 +4083,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -4085,13 +4095,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4151,7 +4161,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>113</v>
@@ -4169,32 +4179,34 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>199</v>
@@ -4202,12 +4214,8 @@
       <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4272,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>113</v>
@@ -4273,7 +4281,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4284,11 +4292,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4298,28 +4306,28 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4356,17 +4364,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4375,27 +4385,27 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4406,28 +4416,32 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4463,59 +4477,57 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4527,17 +4539,15 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4574,31 +4584,31 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4615,43 +4625,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4675,49 +4683,49 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4726,9 +4734,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4742,28 +4750,28 @@
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4788,13 +4796,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4812,7 +4820,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4827,10 +4835,10 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4841,7 +4849,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4864,19 +4872,19 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4889,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4901,13 +4909,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4925,7 +4933,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4940,13 +4948,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4954,7 +4962,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4977,18 +4985,20 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5036,7 +5046,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5051,21 +5061,21 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5079,7 +5089,7 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5088,15 +5098,17 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5109,7 +5121,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5145,7 +5157,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5160,13 +5172,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5174,7 +5186,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5197,17 +5209,15 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5256,7 +5266,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5271,25 +5281,23 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5310,18 +5318,18 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5330,7 +5338,7 @@
         <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>76</v>
@@ -5369,36 +5377,36 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>275</v>
@@ -5414,7 +5422,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5423,17 +5431,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5482,7 +5490,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5491,75 +5499,73 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5597,36 +5603,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5637,41 +5643,43 @@
         <v>85</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -5686,11 +5694,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5708,13 +5718,13 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5723,21 +5733,21 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5748,7 +5758,7 @@
         <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5760,19 +5770,19 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5797,13 +5807,11 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5821,36 +5829,36 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5858,34 +5866,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5934,36 +5942,36 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5977,7 +5985,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5986,19 +5994,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6047,7 +6055,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6056,27 +6064,27 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6087,10 +6095,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6099,16 +6107,20 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6156,28 +6168,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6185,18 +6197,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -6208,17 +6220,15 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6255,31 +6265,31 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6294,15 +6304,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6312,7 +6320,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6321,15 +6329,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6366,16 +6376,16 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>112</v>
@@ -6396,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6407,10 +6417,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>76</v>
@@ -6432,13 +6442,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6518,9 +6528,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6538,10 +6550,10 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>334</v>
@@ -6574,13 +6586,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -6598,28 +6610,28 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6627,7 +6639,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6650,20 +6662,16 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6687,13 +6695,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6711,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6720,27 +6728,27 @@
         <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6754,28 +6762,28 @@
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6800,13 +6808,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6824,7 +6832,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6839,21 +6847,21 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6867,27 +6875,29 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6911,13 +6921,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6935,7 +6945,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6950,21 +6960,21 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6978,7 +6988,7 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6987,15 +6997,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7044,7 +7056,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7059,21 +7071,21 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7081,35 +7093,31 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7157,36 +7165,36 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7194,13 +7202,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7209,16 +7217,20 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7266,28 +7278,28 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7295,18 +7307,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7318,17 +7330,15 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7365,31 +7375,31 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7404,25 +7414,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7431,16 +7439,16 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>108</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7478,16 +7486,16 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>112</v>
@@ -7508,7 +7516,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7517,11 +7525,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7533,29 +7543,27 @@
         <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7567,7 +7575,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7579,13 +7587,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7603,36 +7611,36 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7646,10 +7654,10 @@
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>86</v>
@@ -7658,15 +7666,17 @@
         <v>161</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7678,7 +7688,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7690,13 +7700,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7714,7 +7724,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7729,13 +7739,13 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7743,7 +7753,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7766,20 +7776,18 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7803,13 +7811,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7842,10 +7850,10 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7856,7 +7864,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7867,7 +7875,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7882,13 +7890,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7900,7 +7912,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7936,13 +7948,13 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7951,13 +7963,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7965,18 +7977,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7991,10 +8003,10 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8009,7 +8021,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8045,13 +8057,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8060,25 +8072,25 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8088,7 +8100,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8100,14 +8112,12 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8120,7 +8130,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8156,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8171,25 +8181,25 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8199,7 +8209,7 @@
         <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8211,12 +8221,14 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8229,7 +8241,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8241,13 +8253,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8265,7 +8277,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8280,13 +8292,13 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8294,11 +8306,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8320,10 +8332,10 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8338,7 +8350,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8350,13 +8362,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8374,7 +8386,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8389,13 +8401,13 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8403,11 +8415,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8429,14 +8441,12 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8449,7 +8459,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8485,7 +8495,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8500,21 +8510,21 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8528,7 +8538,7 @@
         <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8537,18 +8547,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8560,7 +8570,7 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>76</v>
@@ -8596,7 +8606,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8611,21 +8621,21 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8639,7 +8649,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8648,17 +8658,17 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>481</v>
+        <v>259</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8671,7 +8681,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8707,7 +8717,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8722,13 +8732,13 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>286</v>
+        <v>482</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>485</v>
+        <v>375</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8747,7 +8757,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8756,22 +8766,20 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8820,13 +8828,13 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8835,21 +8843,21 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8860,10 +8868,10 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8872,16 +8880,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8929,25 +8941,25 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>101</v>
+        <v>489</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8958,18 +8970,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8981,17 +8993,15 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9040,19 +9050,19 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -9069,11 +9079,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>496</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9086,26 +9096,24 @@
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>107</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9153,7 +9161,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9179,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9182,40 +9190,42 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M65" s="2"/>
+      <c r="M65" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>503</v>
+        <v>204</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9240,13 +9250,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9264,25 +9274,25 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9293,7 +9303,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9316,17 +9326,17 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>508</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9351,13 +9361,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>508</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9375,7 +9385,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9390,10 +9400,10 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9402,9 +9412,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9415,10 +9425,10 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9427,17 +9437,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>511</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9486,13 +9496,13 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9501,10 +9511,10 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9513,9 +9523,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9526,10 +9536,10 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9538,16 +9548,18 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>100</v>
+        <v>519</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9595,25 +9607,25 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>101</v>
+        <v>517</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>102</v>
+        <v>522</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9624,18 +9636,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9647,17 +9659,15 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9694,31 +9704,31 @@
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9735,13 +9745,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9760,15 +9768,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9805,16 +9815,16 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>112</v>
@@ -9835,7 +9845,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9846,10 +9856,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>76</v>
@@ -9871,13 +9881,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9955,11 +9965,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9968,19 +9980,19 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>334</v>
@@ -10013,13 +10025,13 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10037,28 +10049,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10066,7 +10078,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10089,20 +10101,16 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10126,13 +10134,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10150,7 +10158,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10159,19 +10167,19 @@
         <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10179,7 +10187,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10196,25 +10204,25 @@
         <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10239,13 +10247,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10263,7 +10271,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10278,21 +10286,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10306,27 +10314,29 @@
         <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10350,13 +10360,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10374,7 +10384,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10389,13 +10399,13 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10403,7 +10413,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10426,15 +10436,17 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10483,7 +10495,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10498,13 +10510,13 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10512,7 +10524,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10532,21 +10544,19 @@
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>529</v>
+        <v>373</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10609,21 +10619,21 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>532</v>
+        <v>375</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10634,10 +10644,10 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10646,17 +10656,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>377</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10705,13 +10715,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10720,20 +10730,131 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM78">
+  <autoFilter ref="A1:AM79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10743,7 +10864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T10:14:10-04:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,6 +632,121 @@
     <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
   </si>
   <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCode</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>whereValid</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
     <t>org-description</t>
   </si>
   <si>
@@ -664,10 +779,6 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
     <t>Identifies this organization  across multiple systems</t>
   </si>
   <si>
@@ -718,9 +829,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -736,10 +844,6 @@
     <t>Organization.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -822,10 +926,6 @@
   </si>
   <si>
     <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -1432,9 +1532,6 @@
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1526,10 +1623,6 @@
   </si>
   <si>
     <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
-</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -2022,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2031,7 +2124,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2055,7 +2148,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3957,7 +4050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>185</v>
       </c>
@@ -3975,7 +4068,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -4068,7 +4161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>185</v>
       </c>
@@ -4086,7 +4179,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4179,13 +4272,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4197,7 +4288,7 @@
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4206,13 +4297,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4263,25 +4354,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4292,15 +4383,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>78</v>
@@ -4309,7 +4400,7 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -4318,17 +4409,13 @@
         <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4364,19 +4451,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4394,7 +4481,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4403,11 +4490,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4425,23 +4514,19 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4477,17 +4562,19 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4496,27 +4583,27 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4625,18 +4712,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4651,14 +4738,12 @@
         <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4725,7 +4810,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4736,7 +4821,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4744,7 +4829,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
@@ -4753,32 +4838,30 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -4796,13 +4879,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4820,10 +4903,10 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -4832,14 +4915,14 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4847,9 +4930,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4857,35 +4940,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4909,13 +4988,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4933,7 +5012,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4948,10 +5027,10 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4962,15 +5041,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
@@ -4982,23 +5063,19 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5010,7 +5087,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5046,36 +5123,36 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5089,26 +5166,24 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5121,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5157,7 +5232,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5169,16 +5244,16 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5186,7 +5261,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5197,7 +5272,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5206,16 +5281,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5254,40 +5329,40 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5295,7 +5370,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5303,7 +5378,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5315,19 +5390,19 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5335,7 +5410,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -5377,10 +5452,10 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
@@ -5389,60 +5464,56 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5451,7 +5522,7 @@
         <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>76</v>
@@ -5466,13 +5537,11 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5490,39 +5559,39 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>216</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5535,27 +5604,25 @@
         <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5564,7 +5631,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -5603,7 +5670,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5612,27 +5679,27 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5640,46 +5707,40 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -5718,7 +5779,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5730,24 +5791,24 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5755,35 +5816,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5807,29 +5864,31 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5841,24 +5900,24 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5872,35 +5931,33 @@
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>76</v>
@@ -5942,28 +5999,28 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5971,7 +6028,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5979,10 +6036,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5994,20 +6051,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -6055,13 +6108,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -6073,7 +6126,7 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -6084,18 +6137,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6107,20 +6162,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6168,7 +6219,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6177,19 +6228,19 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6197,7 +6248,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6306,18 +6357,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6332,14 +6383,12 @@
         <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6406,7 +6455,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6415,25 +6464,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6442,22 +6489,24 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>76</v>
@@ -6499,25 +6548,25 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6526,25 +6575,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6553,13 +6600,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6598,37 +6645,35 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6637,38 +6682,40 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6677,7 +6724,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6695,13 +6742,11 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>340</v>
+        <v>223</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6719,7 +6764,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6728,19 +6773,19 @@
         <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6748,9 +6793,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6768,23 +6815,19 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6832,28 +6875,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6861,7 +6904,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6878,26 +6921,22 @@
         <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6921,13 +6960,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6945,7 +6984,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6957,24 +6996,24 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6985,29 +7024,27 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7044,37 +7081,37 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7085,7 +7122,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7093,7 +7130,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -7105,25 +7142,27 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7165,10 +7204,10 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>207</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>85</v>
@@ -7177,24 +7216,24 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AL46" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7205,10 +7244,10 @@
         <v>85</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7217,20 +7256,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>377</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7278,38 +7313,40 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>212</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>383</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>184</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7318,10 +7355,10 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7330,13 +7367,13 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7387,25 +7424,25 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7416,18 +7453,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7439,17 +7476,15 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7486,31 +7521,31 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7525,13 +7560,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7540,10 +7573,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7552,17 +7585,15 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>389</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7599,16 +7630,16 @@
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>112</v>
@@ -7640,7 +7671,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7648,7 +7679,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>85</v>
@@ -7657,38 +7688,36 @@
         <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7700,13 +7729,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7724,10 +7753,10 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7736,16 +7765,16 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7753,7 +7782,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7761,7 +7790,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7773,20 +7802,18 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7799,7 +7826,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7811,13 +7838,11 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7835,7 +7860,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7850,10 +7875,10 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7862,9 +7887,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>229</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7872,47 +7897,45 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7948,10 +7971,10 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>207</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>85</v>
@@ -7960,13 +7983,13 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>421</v>
+        <v>184</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7975,9 +7998,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>231</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7988,25 +8011,25 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8021,7 +8044,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8057,13 +8080,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>212</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8072,25 +8095,27 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>429</v>
+        <v>184</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8100,22 +8125,22 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>433</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8130,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8166,28 +8191,28 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8195,41 +8220,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>237</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>441</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>442</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8241,7 +8268,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8277,25 +8304,25 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>241</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>184</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8304,20 +8331,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8329,16 +8356,20 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8362,64 +8393,62 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>456</v>
+        <v>249</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>457</v>
+        <v>250</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>458</v>
+        <v>102</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8429,22 +8458,22 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>100</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8459,7 +8488,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8495,7 +8524,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8507,56 +8536,56 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>471</v>
+        <v>108</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8594,40 +8623,40 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>112</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>475</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8635,7 +8664,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>254</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8652,23 +8681,25 @@
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>477</v>
+        <v>255</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>258</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8681,7 +8712,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8693,13 +8724,13 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8717,7 +8748,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>481</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8732,21 +8763,21 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>482</v>
+        <v>184</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8760,7 +8791,7 @@
         <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8769,17 +8800,19 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>484</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>485</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>487</v>
+        <v>267</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8804,13 +8837,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8828,7 +8861,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8843,13 +8876,13 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>488</v>
+        <v>262</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8857,7 +8890,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8868,7 +8901,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8877,22 +8910,22 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>490</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>491</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>492</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>493</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8905,7 +8938,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8941,13 +8974,13 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>489</v>
+        <v>278</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8956,21 +8989,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>495</v>
+        <v>280</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8984,24 +9017,26 @@
         <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9014,7 +9049,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9050,7 +9085,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9062,16 +9097,16 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9079,18 +9114,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -9099,20 +9134,18 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9161,72 +9194,70 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9274,38 +9305,40 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>502</v>
+        <v>303</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9317,26 +9350,26 @@
         <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>504</v>
+        <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>505</v>
+        <v>244</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>506</v>
+        <v>246</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9346,7 +9379,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9361,13 +9394,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>507</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>508</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9385,38 +9418,40 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>503</v>
+        <v>242</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>509</v>
+        <v>250</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9434,20 +9469,20 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>511</v>
+        <v>209</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>512</v>
+        <v>311</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>513</v>
+        <v>244</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>514</v>
+        <v>246</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9457,7 +9492,7 @@
         <v>76</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>76</v>
@@ -9496,36 +9531,36 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>510</v>
+        <v>242</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>515</v>
+        <v>249</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>517</v>
+        <v>313</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9533,42 +9568,46 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M68" s="2"/>
+      <c r="M68" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>520</v>
+        <v>318</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9607,13 +9646,13 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>517</v>
+        <v>313</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9622,21 +9661,21 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9644,31 +9683,35 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9692,13 +9735,11 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9716,70 +9757,72 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>334</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9815,52 +9858,50 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>102</v>
+        <v>340</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9872,7 +9913,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9881,16 +9922,20 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9938,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>342</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9950,13 +9995,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9965,13 +10010,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9983,7 +10026,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9992,16 +10035,20 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10049,7 +10096,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10058,27 +10105,27 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>525</v>
+        <v>358</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10092,22 +10139,22 @@
         <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>337</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10134,13 +10181,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10158,7 +10205,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10167,63 +10214,61 @@
         <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>359</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10259,50 +10304,52 @@
         <v>76</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10311,32 +10358,28 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10360,13 +10403,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10384,28 +10427,28 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10413,9 +10456,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10424,7 +10469,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10433,20 +10478,18 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10495,25 +10538,25 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10522,9 +10565,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10538,7 +10581,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10547,13 +10590,13 @@
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10580,13 +10623,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10604,36 +10647,36 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>378</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10647,26 +10690,28 @@
         <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>377</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>533</v>
+        <v>382</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10715,7 +10760,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10730,21 +10775,21 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>534</v>
+        <v>384</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>535</v>
+        <v>385</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>386</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10755,29 +10800,31 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>537</v>
+        <v>161</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>538</v>
+        <v>387</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -10802,13 +10849,13 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10826,13 +10873,13 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>536</v>
+        <v>393</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10841,20 +10888,3901 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AK80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM79">
+  <autoFilter ref="A1:AM114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10864,7 +14792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,313 +619,226 @@
 </t>
   </si>
   <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
+    <t>paymentaccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
 </t>
   </si>
   <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
-    <t>Organization.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Organization.extension.extension.value[x]</t>
+    <t>Payment Accepted</t>
+  </si>
+  <si>
+    <t>Methods of payment that can be used for a healthcare service.</t>
+  </si>
+  <si>
+    <t>fundingSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+</t>
+  </si>
+  <si>
+    <t>Funding Source</t>
+  </si>
+  <si>
+    <t>The sources of funding for a service or organization</t>
+  </si>
+  <si>
+    <t>org-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
+</t>
+  </si>
+  <si>
+    <t>Organization Description</t>
+  </si>
+  <si>
+    <t>An extension to provide a human-readable description of an organization.</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>NPI preferred.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
-  </si>
-  <si>
-    <t>issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
-</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
-  </si>
-  <si>
-    <t>period</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>whereValid</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
-  </si>
-  <si>
-    <t>Organization.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
-  </si>
-  <si>
-    <t>Organization.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>org-description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
-</t>
-  </si>
-  <si>
-    <t>Organization Description</t>
-  </si>
-  <si>
-    <t>An extension to provide a human-readable description of an organization.</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>NPI preferred.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.10 / XON.3</t>
-  </si>
-  <si>
-    <t>.scopes[Role](classCode=IDENT)</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -1532,6 +1445,9 @@
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1623,6 +1539,10 @@
   </si>
   <si>
     <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -2115,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM114"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2124,17 +2044,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2143,24 +2063,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.5" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4274,9 +4194,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4285,7 +4207,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4297,13 +4219,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4354,25 +4276,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4383,18 +4305,20 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -4406,13 +4330,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4451,19 +4375,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4472,7 +4396,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>113</v>
@@ -4490,15 +4414,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4508,10 +4430,10 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
@@ -4520,13 +4442,17 @@
         <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4574,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4592,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4603,7 +4529,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4614,28 +4540,32 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4671,48 +4601,46 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4723,7 +4651,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4735,13 +4663,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4780,37 +4708,37 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4821,18 +4749,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4844,16 +4772,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4861,7 +4789,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -4891,37 +4819,37 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4932,7 +4860,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4940,7 +4868,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -4949,22 +4877,26 @@
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4988,13 +4920,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -5012,7 +4944,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5027,10 +4959,10 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -5039,43 +4971,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5099,13 +5033,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -5123,25 +5057,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -5150,9 +5084,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5166,25 +5100,29 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5196,7 +5134,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5232,7 +5170,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5244,24 +5182,24 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5272,27 +5210,29 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5305,7 +5245,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5329,40 +5269,40 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5370,7 +5310,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5378,7 +5318,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5390,27 +5330,25 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -5452,10 +5390,10 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
@@ -5464,24 +5402,24 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5489,30 +5427,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5537,11 +5477,13 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5559,7 +5501,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5574,13 +5516,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5588,10 +5530,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5610,19 +5552,21 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5631,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -5670,7 +5614,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5679,29 +5623,31 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5719,19 +5665,21 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5740,7 +5688,7 @@
         <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -5779,36 +5727,36 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5816,40 +5764,46 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
@@ -5876,48 +5830,48 @@
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5928,36 +5882,38 @@
         <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>76</v>
@@ -5975,13 +5931,11 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5999,36 +5953,36 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6042,25 +5996,29 @@
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -6108,7 +6066,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6117,19 +6075,19 @@
         <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6137,20 +6095,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6162,16 +6118,20 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6219,7 +6179,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6231,13 +6191,13 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6246,9 +6206,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6259,10 +6219,10 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6271,16 +6231,20 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6328,28 +6292,28 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6357,7 +6321,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6368,7 +6332,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6380,13 +6344,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6425,37 +6389,37 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6466,18 +6430,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6489,16 +6453,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6506,7 +6470,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>76</v>
@@ -6536,37 +6500,37 @@
         <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6577,18 +6541,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6600,13 +6566,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6645,35 +6611,37 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6684,20 +6652,20 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6709,13 +6677,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6724,7 +6692,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6742,11 +6710,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6764,25 +6734,25 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6793,11 +6763,9 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6815,16 +6783,16 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6851,13 +6819,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6875,36 +6843,36 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6918,25 +6886,29 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6984,7 +6956,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6996,16 +6968,16 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7013,7 +6985,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7024,28 +6996,32 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -7069,52 +7045,52 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7122,7 +7098,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7130,7 +7106,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -7142,19 +7118,19 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7162,7 +7138,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7204,10 +7180,10 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>85</v>
@@ -7216,13 +7192,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7233,7 +7209,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7241,7 +7217,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>85</v>
@@ -7253,16 +7229,16 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7313,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7328,13 +7304,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7342,11 +7318,9 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7367,16 +7341,20 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7424,7 +7402,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7433,19 +7411,19 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7453,7 +7431,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7562,18 +7540,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7588,12 +7566,14 @@
         <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7660,7 +7640,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7671,15 +7651,17 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>85</v>
@@ -7694,16 +7676,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>205</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>206</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7711,7 +7693,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>76</v>
@@ -7753,25 +7735,25 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7780,9 +7762,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7790,31 +7772,35 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7826,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7838,11 +7824,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7860,7 +7848,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>212</v>
+        <v>405</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7875,13 +7863,13 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>184</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7889,7 +7877,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7897,7 +7885,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
@@ -7909,19 +7897,19 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>205</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
+        <v>411</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7929,13 +7917,13 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7947,13 +7935,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7971,10 +7959,10 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>207</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>85</v>
@@ -7983,13 +7971,13 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>184</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -8000,7 +7988,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8011,7 +7999,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -8020,19 +8008,23 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8044,7 +8036,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8080,7 +8072,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8095,10 +8087,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>184</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -8107,13 +8099,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8122,25 +8112,25 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>235</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8155,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8191,7 +8181,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8200,63 +8190,59 @@
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8268,7 +8254,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8304,28 +8290,28 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>241</v>
+        <v>440</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>184</v>
+        <v>442</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8333,21 +8319,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8356,20 +8342,18 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>243</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>244</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8381,7 +8365,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8405,50 +8389,52 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>249</v>
+        <v>451</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>250</v>
+        <v>452</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8458,22 +8444,22 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8500,13 +8486,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -8524,7 +8510,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8536,57 +8522,55 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>253</v>
+        <v>463</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>104</v>
+        <v>464</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8599,7 +8583,7 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>76</v>
@@ -8623,48 +8607,48 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>112</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>102</v>
+        <v>470</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8678,29 +8662,27 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>255</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>474</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8724,13 +8706,13 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8748,7 +8730,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8763,13 +8745,13 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>184</v>
+        <v>477</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>262</v>
+        <v>478</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8777,7 +8759,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8800,19 +8782,17 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>481</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>267</v>
+        <v>483</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8825,7 +8805,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -8837,13 +8817,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8861,7 +8841,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>270</v>
+        <v>485</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8876,21 +8856,21 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8904,7 +8884,7 @@
         <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8913,19 +8893,17 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>127</v>
+        <v>488</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8938,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8974,7 +8952,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>278</v>
+        <v>487</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8989,21 +8967,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>280</v>
+        <v>492</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9014,30 +8992,32 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>495</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9049,7 +9029,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9085,13 +9065,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>287</v>
+        <v>493</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -9100,13 +9080,13 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>289</v>
+        <v>499</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9114,7 +9094,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>500</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9134,16 +9114,16 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9194,7 +9174,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9206,56 +9186,56 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>298</v>
+        <v>501</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>299</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9305,71 +9285,71 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>503</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>308</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9379,7 +9359,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9418,7 +9398,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9427,31 +9407,29 @@
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9469,20 +9447,20 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>311</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>244</v>
+        <v>509</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>246</v>
+        <v>510</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9492,7 +9470,7 @@
         <v>76</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>76</v>
@@ -9507,13 +9485,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>511</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9531,36 +9509,36 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>242</v>
+        <v>507</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>250</v>
+        <v>513</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>313</v>
+        <v>514</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9568,46 +9546,42 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>314</v>
+        <v>515</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>315</v>
+        <v>516</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>318</v>
+        <v>518</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9646,7 +9620,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>313</v>
+        <v>514</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9661,21 +9635,21 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>321</v>
+        <v>519</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>322</v>
+        <v>520</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>521</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9683,34 +9657,32 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>329</v>
+        <v>524</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9735,11 +9707,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9757,7 +9731,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>325</v>
+        <v>521</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9772,21 +9746,21 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>331</v>
+        <v>525</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>332</v>
+        <v>526</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>334</v>
+        <v>527</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9794,35 +9768,31 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9870,7 +9840,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9879,31 +9849,31 @@
         <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>528</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9913,7 +9883,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9922,20 +9892,18 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9971,19 +9939,19 @@
         <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>342</v>
+        <v>112</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9995,13 +9963,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10010,11 +9978,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10026,7 +9996,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10035,20 +10005,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10096,7 +10062,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10105,19 +10071,19 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>354</v>
+        <v>113</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10125,9 +10091,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10136,7 +10104,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -10148,13 +10116,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10205,25 +10173,25 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -10234,18 +10202,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10254,20 +10222,18 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10292,52 +10258,52 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>102</v>
+        <v>348</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10345,11 +10311,9 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10358,7 +10322,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10367,19 +10331,23 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>361</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10427,28 +10395,28 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10456,11 +10424,9 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10469,28 +10435,32 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>365</v>
+        <v>161</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10514,13 +10484,13 @@
         <v>76</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -10538,36 +10508,36 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>368</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10581,7 +10551,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10590,15 +10560,17 @@
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -10623,13 +10595,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10647,7 +10619,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10656,27 +10628,27 @@
         <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>375</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10690,7 +10662,7 @@
         <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10699,20 +10671,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10760,7 +10728,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10775,13 +10743,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10789,7 +10757,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10806,25 +10774,23 @@
         <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>387</v>
+        <v>535</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>390</v>
+        <v>537</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -10849,13 +10815,13 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10873,7 +10839,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>393</v>
+        <v>534</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10888,21 +10854,21 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>395</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>397</v>
+        <v>540</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10913,30 +10879,30 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>398</v>
+        <v>541</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10984,13 +10950,13 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>402</v>
+        <v>540</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10999,7 +10965,7 @@
         <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>102</v>
@@ -11011,3778 +10977,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM114">
+  <autoFilter ref="A1:AM80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14792,7 +10988,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Organization</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-Organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -608,7 +608,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/paymentAccepted}
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/fundingSource}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>org-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/org-description}
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrgTypeVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/OrgTypeVS</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1061,7 +1061,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1541,7 +1541,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.4609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An organization is a formal or informal grouping of people or organizations with a common purpose, such as a company, institution, corporation, community group, or healthcare practice.
+    <t>An organization is a formal or informal grouping of people or organizations with a common purpose, such as a company, institution, corporation, community group, or healthcare practice.
 Guidance:   When the contact is a department name, rather than a human (e.g., patient help line), include a blank family and given name, and provide the department name in contact.name.text</t>
   </si>
   <si>
@@ -2044,45 +2044,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="210.3203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEx-Organization.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Organization</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-Organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -608,7 +608,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/paymentAccepted}
 </t>
   </si>
   <si>
@@ -635,7 +635,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/fundingSource}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>org-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/org-description}
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrgTypeVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/OrgTypeVS</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1061,7 +1061,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1541,7 +1541,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.1484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.99609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
